--- a/data/trans_bre/IP25-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP25-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 10,44</t>
+          <t>-2,36; 10,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 5,15</t>
+          <t>-6,51; 5,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 1,7</t>
+          <t>-14,46; 1,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 12,33</t>
+          <t>-2,56; 12,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 5,67</t>
+          <t>-6,82; 5,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,18; 1,76</t>
+          <t>-14,86; 1,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 5,57</t>
+          <t>-0,91; 5,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,96; -1,04</t>
+          <t>-6,97; -0,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 1,44</t>
+          <t>-3,96; 1,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 6,43</t>
+          <t>-0,99; 6,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,44; -1,15</t>
+          <t>-7,54; -0,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 1,59</t>
+          <t>-4,23; 1,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 10,73</t>
+          <t>-1,89; 10,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 6,99</t>
+          <t>-4,28; 7,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 5,18</t>
+          <t>-6,77; 5,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 13,69</t>
+          <t>-2,23; 13,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 8,36</t>
+          <t>-4,69; 8,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 6,28</t>
+          <t>-7,58; 6,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 5,4</t>
+          <t>0,29; 5,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 0,57</t>
+          <t>-4,8; 0,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 1,27</t>
+          <t>-4,02; 1,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,1; 6,25</t>
+          <t>0,33; 6,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 0,62</t>
+          <t>-5,22; 0,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 1,42</t>
+          <t>-4,37; 1,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">

--- a/data/trans_bre/IP25-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP25-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,37 +620,37 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-5,83</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,67%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-2,85; 10,17</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-6,96; 5,07</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-13,48; 1,0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,04; 11,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,26; 5,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,01; 0,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,17 +720,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,83</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,67%</t>
+          <t>-4,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-6,13%</t>
+          <t>-1,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 10,44</t>
+          <t>-1,22; 5,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 5,3</t>
+          <t>-6,82; -0,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 1,57</t>
+          <t>-4,34; 1,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 12,3</t>
+          <t>-1,27; 6,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 5,82</t>
+          <t>-7,36; -0,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,86; 1,67</t>
+          <t>-4,65; 1,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,17 +820,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,17 +840,17 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,16%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,45%</t>
+          <t>-0,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 5,49</t>
+          <t>-1,73; 11,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,97; -0,64</t>
+          <t>-3,79; 7,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 1,73</t>
+          <t>-6,26; 5,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 6,34</t>
+          <t>-2,01; 14,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,54; -0,75</t>
+          <t>-4,14; 8,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 1,9</t>
+          <t>-7,0; 6,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,17 +920,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -940,17 +940,17 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>-2,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,55%</t>
+          <t>-1,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 10,25</t>
+          <t>0,5; 5,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 7,15</t>
+          <t>-4,75; 0,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 5,31</t>
+          <t>-3,84; 1,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 13,09</t>
+          <t>0,57; 6,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 8,42</t>
+          <t>-5,1; 0,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 6,45</t>
+          <t>-4,17; 1,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1008,116 +1008,15 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,78</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,17</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,49</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>3,17%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-2,38%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-1,64%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 5,68</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,8; 0,48</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,02; 1,02</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0,33; 6,6</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-5,22; 0,53</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-4,37; 1,1</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
